--- a/data/trans_orig/Q57-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q57-Estudios-trans_orig.xlsx
@@ -614,13 +614,13 @@
         <v>6.791229210081655</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.979776326245923</v>
+        <v>6.979776326245924</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>6.986748891730038</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>7.161649808961467</v>
+        <v>7.161649808961469</v>
       </c>
     </row>
     <row r="5">
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.119462171029738</v>
+        <v>7.127710795853931</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.236112245670203</v>
+        <v>7.230525174842378</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.661790341234564</v>
+        <v>6.657676876764024</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.859424338772612</v>
+        <v>6.849695601777968</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.893424289321724</v>
+        <v>6.899853356035067</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.051016263316722</v>
+        <v>7.068251739562585</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.360535940997129</v>
+        <v>7.375865060528461</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.595123438250961</v>
+        <v>7.59408594636446</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.916041475916699</v>
+        <v>6.911205501453548</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.091502368540119</v>
+        <v>7.097224796501569</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.076523070642349</v>
+        <v>7.085042262081244</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.261141707383061</v>
+        <v>7.254153738214145</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.683546953494677</v>
+        <v>7.685550248240616</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.194430863344197</v>
+        <v>8.183169389803668</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.570239271297195</v>
+        <v>7.561666245899363</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8.061756834691762</v>
+        <v>8.070557471655121</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.640219956524466</v>
+        <v>7.641557537158821</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>8.151821556897291</v>
+        <v>8.147769654690393</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.81751275998847</v>
+        <v>7.816507643301661</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.336933507748734</v>
+        <v>8.332774627929673</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.702853828704201</v>
+        <v>7.702248662531709</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.18680308988211</v>
+        <v>8.191299410058523</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.736926210272201</v>
+        <v>7.746347727875632</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.246854241227103</v>
+        <v>8.242075634080456</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>8.02916199932633</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>8.278326561143926</v>
+        <v>8.278326561143928</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.945610376347466</v>
+        <v>7.942621362360068</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.183228995172104</v>
+        <v>8.190030198746406</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.893781341702167</v>
+        <v>7.876016269004071</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.146180691682341</v>
+        <v>8.145738723740999</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>7.948213135059829</v>
+        <v>7.945572128851024</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>8.198036184167151</v>
+        <v>8.202911338066588</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.161873411709568</v>
+        <v>8.178234971546646</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.425594115520441</v>
+        <v>8.415352859824242</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.116354378582766</v>
+        <v>8.109891089085851</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.333689895075846</v>
+        <v>8.342915355984891</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.104989729940572</v>
+        <v>8.106412660467944</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.353970494054721</v>
+        <v>8.353968540669426</v>
       </c>
     </row>
     <row r="13">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.633450280237584</v>
+        <v>7.632705695981131</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.070644458132001</v>
+        <v>8.069065911053965</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.395985821942369</v>
+        <v>7.39058586798239</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.851023048613214</v>
+        <v>7.855672516393843</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>7.526638107726716</v>
+        <v>7.526011544365927</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.976511773705008</v>
+        <v>7.976999279658251</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.740437403299357</v>
+        <v>7.743380975175934</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.19366136154796</v>
+        <v>8.19112829240682</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.515511284472328</v>
+        <v>7.507320701988436</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.955738864132244</v>
+        <v>7.954355431956604</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.606602006496106</v>
+        <v>7.609540959456739</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>8.053958455899913</v>
+        <v>8.052494373834703</v>
       </c>
     </row>
     <row r="16">
